--- a/biology/Biologie cellulaire et moléculaire/SAM_(format_de_fichier)/SAM_(format_de_fichier).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SAM_(format_de_fichier)/SAM_(format_de_fichier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le format de cartographie d'alignement de séquence, en anglais sequence alignment map (SAM) est un format texte permettant de stocker des séquences biologiques alignées sur une séquence de référence développé par Heng Li et Bob Handsaker et al[1]. Il est largement utilisé pour stocker des données telles que séquences de nucléotides générées par les technologies de séquençage de nouvelle génération. Le format prend en charge les lectures (en anglais reads) courts et longs (jusqu'à 128 Mbit/s) produit(e)s par différentes plates-formes de séquençage et est utilisé pour conserver des données alignées dans le cadre du Genome Analysis Toolkit (GATK) et au sein du Broad Institute, Wellcome Sanger Institute et du projet 1000 Genomes. Ce format peut contenir des qualités d'appel de base ou base-calling, d'alignement et d'autres données[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le format de cartographie d'alignement de séquence, en anglais sequence alignment map (SAM) est un format texte permettant de stocker des séquences biologiques alignées sur une séquence de référence développé par Heng Li et Bob Handsaker et al. Il est largement utilisé pour stocker des données telles que séquences de nucléotides générées par les technologies de séquençage de nouvelle génération. Le format prend en charge les lectures (en anglais reads) courts et longs (jusqu'à 128 Mbit/s) produit(e)s par différentes plates-formes de séquençage et est utilisé pour conserver des données alignées dans le cadre du Genome Analysis Toolkit (GATK) et au sein du Broad Institute, Wellcome Sanger Institute et du projet 1000 Genomes. Ce format peut contenir des qualités d'appel de base ou base-calling, d'alignement et d'autres données,. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Format</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le format SAM comprend un en-tête et une section d'alignement[1]. L'équivalent binaire d'un fichier SAM est un fichier BAM (Binary Alignment Map), qui stocke les mêmes données mais selon une représentation binaire compressée[3]. Les fichiers SAM peuvent être analysés et édités avec le logiciel SAMtools[1]. Si présente, la section d'en-tête doit précéder la section d'alignement. Les en-têtes commencent par le symbole "@", ce qui les distingue de la section d'alignement. La section d'en-tête peut indiquer si les reads sont triés et comment le cas échéant, et comprend en général les longueurs en paires de bases des chromosomes de référence de l'assemblage utilisé, ainsi que la ligne de commande utilisée par le programme d'alignement[4]. Les sections d'alignement comportent 11 champs obligatoires, ainsi qu'un nombre variable de champs facultatifs[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le format SAM comprend un en-tête et une section d'alignement. L'équivalent binaire d'un fichier SAM est un fichier BAM (Binary Alignment Map), qui stocke les mêmes données mais selon une représentation binaire compressée. Les fichiers SAM peuvent être analysés et édités avec le logiciel SAMtools. Si présente, la section d'en-tête doit précéder la section d'alignement. Les en-têtes commencent par le symbole "@", ce qui les distingue de la section d'alignement. La section d'en-tête peut indiquer si les reads sont triés et comment le cas échéant, et comprend en général les longueurs en paires de bases des chromosomes de référence de l'assemblage utilisé, ainsi que la ligne de commande utilisée par le programme d'alignement. Les sections d'alignement comportent 11 champs obligatoires, ainsi qu'un nombre variable de champs facultatifs. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon les spécifications SAM[3]: 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon les spécifications SAM: 
 QNAME: NOM de la requête du modèle. Les reads/segments ayant un QNAME identique sont considérés comme provenant du même modèle. Un QNAME '*' indique que les informations sont indisponibles. Dans un fichier SAM, un read peut occuper plusieurs lignes d'alignement, lorsque son alignement est chimérique ou lorsque plusieurs mappages sont donnés.
 FLAG: Combinaison de FLAGs au niveau des bits
 RNAME: NOM de la séquence de référence de l'alignement. Si les lignes d'en-tête @SQ sont présentes, RNAME (sinon «*») doit figurer dans l'une des balises SQ-SN. Un segment non mappé sans coordonnée aura un '*' comme valeur pour ce champ. Cependant, un segment non mappé peut également avoir une coordonnée ordinaire, de sorte qu'il peut être placé à une position souhaitée après tri. Si RNAME est '*', aucune hypothèse ne peut être émise concernant le POS et le CIGAR.
